--- a/Analysis/RQ2-RQ4/Log files/overhead_combined.xlsx
+++ b/Analysis/RQ2-RQ4/Log files/overhead_combined.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">B2-C2</f>
+        <f t="shared" ref="E2:E40" si="0">B2-C2</f>
         <v>2</v>
       </c>
     </row>
@@ -984,38 +984,164 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2">
-        <f>AVERAGE(B2:B33)/60</f>
-        <v>21.3515625</v>
-      </c>
-      <c r="C34" s="2">
-        <f>AVERAGE(C2:C33)/60</f>
-        <v>21.132291666666667</v>
-      </c>
-      <c r="D34" s="2">
-        <f>AVERAGE(D2:D33)</f>
-        <v>12.5625</v>
-      </c>
-      <c r="E34" s="2">
-        <f>AVERAGE(E2:E33)</f>
-        <v>13.15625</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1105</v>
+      </c>
+      <c r="C34">
+        <v>1102</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1031</v>
+      </c>
+      <c r="C35">
+        <v>1013</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1109</v>
+      </c>
+      <c r="C36">
+        <v>1103</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2243</v>
+      </c>
+      <c r="C37">
+        <v>2239</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E37">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1123</v>
+      </c>
+      <c r="C38">
+        <v>1109</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1597</v>
+      </c>
+      <c r="C39">
+        <v>1592</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1229</v>
+      </c>
+      <c r="C40">
+        <v>1219</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2">
+        <f>AVERAGE(B2:B40)/60</f>
+        <v>21.55213675213675</v>
+      </c>
+      <c r="C41" s="2">
+        <f>AVERAGE(C2:C40)/60</f>
+        <v>21.346581196581198</v>
+      </c>
+      <c r="D41" s="2">
+        <f>AVERAGE(D2:D40)</f>
+        <v>11.717948717948717</v>
+      </c>
+      <c r="E41" s="2">
+        <f>AVERAGE(E2:E40)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
         <v>5</v>
       </c>
     </row>
